--- a/output_data9.xlsx
+++ b/output_data9.xlsx
@@ -22,7 +22,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* -#,##0.00_);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* -#,##0.0_);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,6 +47,12 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
@@ -57,7 +63,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -80,6 +86,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="006495ED"/>
         <bgColor rgb="006495ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F68216"/>
+        <bgColor rgb="00F68216"/>
       </patternFill>
     </fill>
     <fill>
@@ -153,9 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -169,40 +181,43 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,1544 +717,1544 @@
       <c r="B3" s="7" t="n">
         <v>-144625.47</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="n">
+      <c r="C3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>-144625.47</v>
       </c>
-      <c r="G3" s="9" t="inlineStr"/>
-      <c r="H3" s="8" t="n">
+      <c r="G3" s="7" t="inlineStr"/>
+      <c r="H3" s="7" t="n">
         <v>5236.87</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="7" t="n">
         <v>911.3200000000001</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="7" t="n">
         <v>16980.56</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="7" t="n">
         <v>4738.85</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="7" t="n">
         <v>14636.78</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="7" t="n">
         <v>58046.88</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="7" t="n">
         <v>-20322.12</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="8" t="n">
         <v>80229.13</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="P3" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>Thu nhập từ hoạt động thẻ</t>
         </is>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <v>9149.99</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="n">
+      <c r="C4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>9149.99</v>
       </c>
-      <c r="G4" s="9" t="inlineStr"/>
-      <c r="H4" s="8" t="n">
+      <c r="G4" s="12" t="inlineStr"/>
+      <c r="H4" s="11" t="n">
         <v>76707.89999999999</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="11" t="n">
         <v>42842.7</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="11" t="n">
         <v>101531.77</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="11" t="n">
         <v>20705.85</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="11" t="n">
         <v>58153.25</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="11" t="n">
         <v>268557.87</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="11" t="n">
         <v>112953.13</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="8" t="n">
         <v>681452.47</v>
       </c>
-      <c r="P4" s="10" t="n">
+      <c r="P4" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Lãi trong hạn</t>
         </is>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>6599.69</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="C5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="n">
         <v>6599.69</v>
       </c>
-      <c r="G5" s="9" t="inlineStr"/>
-      <c r="H5" s="8" t="n">
+      <c r="G5" s="12" t="inlineStr"/>
+      <c r="H5" s="11" t="n">
         <v>71210.39999999999</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="11" t="n">
         <v>40313.73</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="11" t="n">
         <v>96090.67999999999</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="11" t="n">
         <v>19781.22</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="11" t="n">
         <v>54371.56</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="11" t="n">
         <v>252252.87</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="11" t="n">
         <v>104784.92</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O5" s="8" t="n">
         <v>638805.38</v>
       </c>
-      <c r="P5" s="10" t="n">
+      <c r="P5" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>Lãi quá hạn</t>
         </is>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>13.59</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="n">
+      <c r="C6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="n">
         <v>13.59</v>
       </c>
-      <c r="G6" s="9" t="inlineStr"/>
-      <c r="H6" s="8" t="n">
+      <c r="G6" s="12" t="inlineStr"/>
+      <c r="H6" s="11" t="n">
         <v>64.19</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="11" t="n">
         <v>55.51</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="11" t="n">
         <v>87.5</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="11" t="n">
         <v>0.76</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="11" t="n">
         <v>53.19</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="11" t="n">
         <v>63.41</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="11" t="n">
         <v>233.45</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="O6" s="8" t="n">
         <v>558.01</v>
       </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Phí Bảo hiểm</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>361.54</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="C7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="n">
         <v>361.54</v>
       </c>
-      <c r="G7" s="9" t="inlineStr"/>
-      <c r="H7" s="8" t="n">
+      <c r="G7" s="12" t="inlineStr"/>
+      <c r="H7" s="11" t="n">
         <v>2248.78</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="11" t="n">
         <v>574.17</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="11" t="n">
         <v>944.21</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="11" t="n">
         <v>60.96</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="11" t="n">
         <v>1325.73</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="11" t="n">
         <v>3895.34</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="11" t="n">
         <v>2485.01</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="8" t="n">
         <v>11534.19</v>
       </c>
-      <c r="P7" s="10" t="n">
+      <c r="P7" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>Phí tăng hạn mức</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>1874.89</v>
       </c>
-      <c r="C8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="n">
+      <c r="C8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="n">
         <v>1874.89</v>
       </c>
-      <c r="G8" s="9" t="inlineStr"/>
-      <c r="H8" s="8" t="n">
+      <c r="G8" s="12" t="inlineStr"/>
+      <c r="H8" s="11" t="n">
         <v>3625.43</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="11" t="n">
         <v>2101.74</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="11" t="n">
         <v>5004.39</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="11" t="n">
         <v>1028.26</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="11" t="n">
         <v>2778.68</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="11" t="n">
         <v>12950.57</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="11" t="n">
         <v>5490.86</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="8" t="n">
         <v>32979.92</v>
       </c>
-      <c r="P8" s="10" t="n">
+      <c r="P8" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>Phí thanh toán chậm, thu từ ngoại bảng, khác…</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <v>300.28</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="n">
+      <c r="C9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="n">
         <v>300.28</v>
       </c>
-      <c r="G9" s="9" t="inlineStr"/>
-      <c r="H9" s="8" t="n">
+      <c r="G9" s="12" t="inlineStr"/>
+      <c r="H9" s="11" t="n">
         <v>634.72</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="11" t="n">
         <v>399.71</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="11" t="n">
         <v>741.65</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="11" t="n">
         <v>148.33</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="11" t="n">
         <v>278.01</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="11" t="n">
         <v>2886.95</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="11" t="n">
         <v>1481.08</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="8" t="n">
         <v>6570.45</v>
       </c>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>Chi phí thuần KDV</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <v>-132141.11</v>
       </c>
-      <c r="C10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="n">
+      <c r="C10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="n">
         <v>-132141.11</v>
       </c>
-      <c r="G10" s="9" t="inlineStr"/>
-      <c r="H10" s="8" t="n">
+      <c r="G10" s="12" t="inlineStr"/>
+      <c r="H10" s="11" t="n">
         <v>-15195.58</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="11" t="n">
         <v>-8487</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="11" t="n">
         <v>-20113.11</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="11" t="n">
         <v>-4101.76</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="11" t="n">
         <v>-11519.97</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="11" t="n">
         <v>-53200.43</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="11" t="n">
         <v>-22375.64</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="8" t="n">
         <v>-134993.49</v>
       </c>
-      <c r="P10" s="10" t="n">
+      <c r="P10" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="10" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>DT Nguồn vốn</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="inlineStr"/>
-      <c r="H11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10" t="n">
+      <c r="B11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="inlineStr"/>
+      <c r="H11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>CP vốn TT 2</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>-9320.709999999999</v>
       </c>
-      <c r="C12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="n">
+      <c r="C12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="n">
         <v>-9320.709999999999</v>
       </c>
-      <c r="G12" s="9" t="inlineStr"/>
-      <c r="H12" s="8" t="n">
+      <c r="G12" s="12" t="inlineStr"/>
+      <c r="H12" s="11" t="n">
         <v>-1071.84</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="11" t="n">
         <v>-598.64</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="11" t="n">
         <v>-1418.7</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="11" t="n">
         <v>-289.32</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="11" t="n">
         <v>-812.5700000000001</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="11" t="n">
         <v>-3752.55</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="11" t="n">
         <v>-1578.29</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="8" t="n">
         <v>-9521.91</v>
       </c>
-      <c r="P12" s="10" t="n">
+      <c r="P12" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>CP vốn TT 1</t>
         </is>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="inlineStr"/>
-      <c r="H13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10" t="n">
+      <c r="B13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12" t="inlineStr"/>
+      <c r="H13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="A14" s="9" t="inlineStr">
         <is>
           <t>CP vốn CCTG</t>
         </is>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="8" t="n">
         <v>-122820.4</v>
       </c>
-      <c r="C14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="n">
+      <c r="C14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="n">
         <v>-122820.4</v>
       </c>
-      <c r="G14" s="9" t="inlineStr"/>
-      <c r="H14" s="8" t="n">
+      <c r="G14" s="12" t="inlineStr"/>
+      <c r="H14" s="11" t="n">
         <v>-14123.75</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="11" t="n">
         <v>-7888.36</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="11" t="n">
         <v>-18694.41</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="11" t="n">
         <v>-3812.44</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="11" t="n">
         <v>-10707.39</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="11" t="n">
         <v>-49447.88</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="11" t="n">
         <v>-20797.35</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="8" t="n">
         <v>-125471.58</v>
       </c>
-      <c r="P14" s="10" t="n">
+      <c r="P14" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>Chi phí thuần hoạt động khác</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="8" t="n">
         <v>-362.68</v>
       </c>
-      <c r="C15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="n">
+      <c r="C15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="n">
         <v>-362.68</v>
       </c>
-      <c r="G15" s="9" t="inlineStr"/>
-      <c r="H15" s="8" t="n">
+      <c r="G15" s="12" t="inlineStr"/>
+      <c r="H15" s="11" t="n">
         <v>-5181.92</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="11" t="n">
         <v>-3281.79</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="11" t="n">
         <v>-6254.28</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="11" t="n">
         <v>-1650.55</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="11" t="n">
         <v>-3229.6</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="11" t="n">
         <v>-16705.22</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="11" t="n">
         <v>-7986.67</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="8" t="n">
         <v>-44290.03</v>
       </c>
-      <c r="P15" s="10" t="n">
+      <c r="P15" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="10" t="inlineStr">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t>DT Fintech</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="inlineStr"/>
-      <c r="H16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10" t="n">
+      <c r="B16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12" t="inlineStr"/>
+      <c r="H16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="10" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>DT tiểu thương, cá nhân</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="inlineStr"/>
-      <c r="H17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10" t="n">
+      <c r="B17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12" t="inlineStr"/>
+      <c r="H17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="10" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>DT Kinh doanh</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="8" t="n">
         <v>1.75</v>
       </c>
-      <c r="C18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7" t="n">
+      <c r="C18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="n">
         <v>1.75</v>
       </c>
-      <c r="G18" s="9" t="inlineStr"/>
-      <c r="H18" s="8" t="n">
+      <c r="G18" s="12" t="inlineStr"/>
+      <c r="H18" s="11" t="n">
         <v>5.45</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="11" t="n">
         <v>3.39</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="11" t="n">
         <v>6.68</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="11" t="n">
         <v>1.76</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="11" t="n">
         <v>3.34</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="11" t="n">
         <v>17.35</v>
       </c>
-      <c r="N18" s="8" t="n">
+      <c r="N18" s="11" t="n">
         <v>8.58</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="8" t="n">
         <v>46.55</v>
       </c>
-      <c r="P18" s="10" t="n">
+      <c r="P18" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="10" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">CP hoa hồng </t>
         </is>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="8" t="n">
         <v>-186.65</v>
       </c>
-      <c r="C19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="n">
+      <c r="C19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="n">
         <v>-186.65</v>
       </c>
-      <c r="G19" s="9" t="inlineStr"/>
-      <c r="H19" s="8" t="n">
+      <c r="G19" s="12" t="inlineStr"/>
+      <c r="H19" s="11" t="n">
         <v>-74.52</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="11" t="n">
         <v>-45.4</v>
       </c>
-      <c r="J19" s="8" t="n">
+      <c r="J19" s="11" t="n">
         <v>-91.04000000000001</v>
       </c>
-      <c r="K19" s="8" t="n">
+      <c r="K19" s="11" t="n">
         <v>-23.27</v>
       </c>
-      <c r="L19" s="8" t="n">
+      <c r="L19" s="11" t="n">
         <v>-44.43</v>
       </c>
-      <c r="M19" s="8" t="n">
+      <c r="M19" s="11" t="n">
         <v>-237.31</v>
       </c>
-      <c r="N19" s="8" t="n">
+      <c r="N19" s="11" t="n">
         <v>-116.75</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="8" t="n">
         <v>-632.73</v>
       </c>
-      <c r="P19" s="10" t="n">
+      <c r="P19" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">CP thuần KD khác </t>
         </is>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="8" t="n">
         <v>-177.77</v>
       </c>
-      <c r="C20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7" t="n">
+      <c r="C20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="n">
         <v>-177.77</v>
       </c>
-      <c r="G20" s="9" t="inlineStr"/>
-      <c r="H20" s="8" t="n">
+      <c r="G20" s="12" t="inlineStr"/>
+      <c r="H20" s="11" t="n">
         <v>-5112.85</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="11" t="n">
         <v>-3239.78</v>
       </c>
-      <c r="J20" s="8" t="n">
+      <c r="J20" s="11" t="n">
         <v>-6169.92</v>
       </c>
-      <c r="K20" s="8" t="n">
+      <c r="K20" s="11" t="n">
         <v>-1629.03</v>
       </c>
-      <c r="L20" s="8" t="n">
+      <c r="L20" s="11" t="n">
         <v>-3188.5</v>
       </c>
-      <c r="M20" s="8" t="n">
+      <c r="M20" s="11" t="n">
         <v>-16485.26</v>
       </c>
-      <c r="N20" s="8" t="n">
+      <c r="N20" s="11" t="n">
         <v>-7878.5</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="8" t="n">
         <v>-43703.85</v>
       </c>
-      <c r="P20" s="10" t="n">
+      <c r="P20" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="10" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>CP hợp tác kd tàu (net)</t>
         </is>
       </c>
-      <c r="B21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="inlineStr"/>
-      <c r="H21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10" t="n">
+      <c r="B21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12" t="inlineStr"/>
+      <c r="H21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>Tổng thu nhập hoạt động</t>
         </is>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="8" t="n">
         <v>-123353.8</v>
       </c>
-      <c r="C22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="n">
+      <c r="C22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="n">
         <v>-123353.8</v>
       </c>
-      <c r="G22" s="9" t="inlineStr"/>
-      <c r="H22" s="8" t="n">
+      <c r="G22" s="12" t="inlineStr"/>
+      <c r="H22" s="11" t="n">
         <v>56330.4</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="11" t="n">
         <v>31073.92</v>
       </c>
-      <c r="J22" s="8" t="n">
+      <c r="J22" s="11" t="n">
         <v>75164.38</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="11" t="n">
         <v>14953.54</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="11" t="n">
         <v>43403.69</v>
       </c>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="11" t="n">
         <v>198652.22</v>
       </c>
-      <c r="N22" s="8" t="n">
+      <c r="N22" s="11" t="n">
         <v>82590.81</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="O22" s="8" t="n">
         <v>502168.95</v>
       </c>
-      <c r="P22" s="10" t="n">
+      <c r="P22" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="11" t="inlineStr">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>Tổng chi phí hoạt động</t>
         </is>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="8" t="n">
         <v>-16495.68</v>
       </c>
-      <c r="C23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="n">
+      <c r="C23" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="n">
         <v>-16495.68</v>
       </c>
-      <c r="G23" s="9" t="inlineStr"/>
-      <c r="H23" s="8" t="n">
+      <c r="G23" s="12" t="inlineStr"/>
+      <c r="H23" s="11" t="n">
         <v>-10423.56</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="11" t="n">
         <v>-6944.91</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="11" t="n">
         <v>-15594.06</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="11" t="n">
         <v>-3933.76</v>
       </c>
-      <c r="L23" s="8" t="n">
+      <c r="L23" s="11" t="n">
         <v>-6492.52</v>
       </c>
-      <c r="M23" s="8" t="n">
+      <c r="M23" s="11" t="n">
         <v>-30513.8</v>
       </c>
-      <c r="N23" s="8" t="n">
+      <c r="N23" s="11" t="n">
         <v>-17148.94</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="8" t="n">
         <v>-91051.56</v>
       </c>
-      <c r="P23" s="10" t="n">
+      <c r="P23" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>CP thuế, phí</t>
         </is>
       </c>
-      <c r="B24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9" t="inlineStr"/>
-      <c r="H24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10" t="n">
+      <c r="B24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12" t="inlineStr"/>
+      <c r="H24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="10" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>CP nhân viên</t>
         </is>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="8" t="n">
         <v>-15074.16</v>
       </c>
-      <c r="C25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7" t="n">
+      <c r="C25" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8" t="n">
         <v>-15074.16</v>
       </c>
-      <c r="G25" s="9" t="inlineStr"/>
-      <c r="H25" s="8" t="n">
+      <c r="G25" s="12" t="inlineStr"/>
+      <c r="H25" s="11" t="n">
         <v>-9172.66</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="11" t="n">
         <v>-6115.86</v>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="11" t="n">
         <v>-13799.75</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="11" t="n">
         <v>-3477.63</v>
       </c>
-      <c r="L25" s="8" t="n">
+      <c r="L25" s="11" t="n">
         <v>-5715.31</v>
       </c>
-      <c r="M25" s="8" t="n">
+      <c r="M25" s="11" t="n">
         <v>-26733.39</v>
       </c>
-      <c r="N25" s="8" t="n">
+      <c r="N25" s="11" t="n">
         <v>-15110.98</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="8" t="n">
         <v>-80125.58</v>
       </c>
-      <c r="P25" s="10" t="n">
+      <c r="P25" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="10" t="inlineStr">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>CP quản lý</t>
         </is>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="8" t="n">
         <v>-627.11</v>
       </c>
-      <c r="C26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7" t="n">
+      <c r="C26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8" t="n">
         <v>-627.11</v>
       </c>
-      <c r="G26" s="9" t="inlineStr"/>
-      <c r="H26" s="8" t="n">
+      <c r="G26" s="12" t="inlineStr"/>
+      <c r="H26" s="11" t="n">
         <v>-356.16</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="11" t="n">
         <v>-240.73</v>
       </c>
-      <c r="J26" s="8" t="n">
+      <c r="J26" s="11" t="n">
         <v>-544.89</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="11" t="n">
         <v>-136.69</v>
       </c>
-      <c r="L26" s="8" t="n">
+      <c r="L26" s="11" t="n">
         <v>-222.91</v>
       </c>
-      <c r="M26" s="8" t="n">
+      <c r="M26" s="11" t="n">
         <v>-1026.44</v>
       </c>
-      <c r="N26" s="8" t="n">
+      <c r="N26" s="11" t="n">
         <v>-589.8099999999999</v>
       </c>
-      <c r="O26" s="7" t="n">
+      <c r="O26" s="8" t="n">
         <v>-3117.65</v>
       </c>
-      <c r="P26" s="10" t="n">
+      <c r="P26" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="10" t="inlineStr">
+      <c r="A27" s="9" t="inlineStr">
         <is>
           <t>CP tài sản</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="8" t="n">
         <v>-794.41</v>
       </c>
-      <c r="C27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7" t="n">
+      <c r="C27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="n">
         <v>-794.41</v>
       </c>
-      <c r="G27" s="9" t="inlineStr"/>
-      <c r="H27" s="8" t="n">
+      <c r="G27" s="12" t="inlineStr"/>
+      <c r="H27" s="11" t="n">
         <v>-894.74</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="11" t="n">
         <v>-588.3200000000001</v>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27" s="11" t="n">
         <v>-1249.42</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="11" t="n">
         <v>-319.44</v>
       </c>
-      <c r="L27" s="8" t="n">
+      <c r="L27" s="11" t="n">
         <v>-554.3</v>
       </c>
-      <c r="M27" s="8" t="n">
+      <c r="M27" s="11" t="n">
         <v>-2753.97</v>
       </c>
-      <c r="N27" s="8" t="n">
+      <c r="N27" s="11" t="n">
         <v>-1448.15</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="O27" s="8" t="n">
         <v>-7808.33</v>
       </c>
-      <c r="P27" s="10" t="n">
+      <c r="P27" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="11" t="inlineStr">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>Chi phí dự phòng</t>
         </is>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="8" t="n">
         <v>-4776</v>
       </c>
-      <c r="C28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="n">
+      <c r="C28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="n">
         <v>-4776</v>
       </c>
-      <c r="G28" s="9" t="inlineStr"/>
-      <c r="H28" s="8" t="n">
+      <c r="G28" s="12" t="inlineStr"/>
+      <c r="H28" s="11" t="n">
         <v>-40669.97</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28" s="11" t="n">
         <v>-23217.68</v>
       </c>
-      <c r="J28" s="8" t="n">
+      <c r="J28" s="11" t="n">
         <v>-42589.76</v>
       </c>
-      <c r="K28" s="8" t="n">
+      <c r="K28" s="11" t="n">
         <v>-6280.93</v>
       </c>
-      <c r="L28" s="8" t="n">
+      <c r="L28" s="11" t="n">
         <v>-22274.39</v>
       </c>
-      <c r="M28" s="8" t="n">
+      <c r="M28" s="11" t="n">
         <v>-110091.54</v>
       </c>
-      <c r="N28" s="8" t="n">
+      <c r="N28" s="11" t="n">
         <v>-85763.99000000001</v>
       </c>
-      <c r="O28" s="7" t="n">
+      <c r="O28" s="8" t="n">
         <v>-330888.27</v>
       </c>
-      <c r="P28" s="10" t="n">
+      <c r="P28" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="12" t="inlineStr">
+      <c r="A29" s="13" t="inlineStr">
         <is>
           <t>2. Số lượng nhân sự ( Sale Manager )</t>
         </is>
       </c>
-      <c r="B29" s="7" t="inlineStr"/>
-      <c r="C29" s="8" t="inlineStr"/>
-      <c r="D29" s="8" t="inlineStr"/>
-      <c r="E29" s="8" t="inlineStr"/>
-      <c r="F29" s="12" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr"/>
+      <c r="D29" s="11" t="inlineStr"/>
+      <c r="E29" s="11" t="inlineStr"/>
+      <c r="F29" s="13" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="G29" s="9" t="inlineStr"/>
-      <c r="H29" s="13" t="inlineStr">
+      <c r="G29" s="12" t="inlineStr"/>
+      <c r="H29" s="14" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I29" s="13" t="inlineStr">
+      <c r="I29" s="14" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J29" s="13" t="inlineStr">
+      <c r="J29" s="14" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="K29" s="13" t="inlineStr">
+      <c r="K29" s="14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L29" s="13" t="inlineStr">
+      <c r="L29" s="14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M29" s="13" t="inlineStr">
+      <c r="M29" s="14" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N29" s="13" t="inlineStr">
+      <c r="N29" s="14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O29" s="13" t="inlineStr">
+      <c r="O29" s="14" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="P29" s="12" t="n">
+      <c r="P29" s="13" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="14" t="inlineStr">
+      <c r="A30" s="15" t="inlineStr">
         <is>
           <t>3. Chỉ số tài chính</t>
         </is>
       </c>
-      <c r="B30" s="7" t="inlineStr"/>
-      <c r="C30" s="8" t="inlineStr"/>
-      <c r="D30" s="8" t="inlineStr"/>
-      <c r="E30" s="8" t="inlineStr"/>
-      <c r="F30" s="14" t="inlineStr"/>
-      <c r="G30" s="9" t="inlineStr"/>
-      <c r="H30" s="15" t="inlineStr"/>
-      <c r="I30" s="15" t="inlineStr"/>
-      <c r="J30" s="15" t="inlineStr"/>
-      <c r="K30" s="15" t="inlineStr"/>
-      <c r="L30" s="15" t="inlineStr"/>
-      <c r="M30" s="15" t="inlineStr"/>
-      <c r="N30" s="15" t="inlineStr"/>
-      <c r="O30" s="16" t="inlineStr"/>
-      <c r="P30" s="14" t="inlineStr"/>
+      <c r="B30" s="8" t="inlineStr"/>
+      <c r="C30" s="11" t="inlineStr"/>
+      <c r="D30" s="11" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
+      <c r="F30" s="15" t="inlineStr"/>
+      <c r="G30" s="12" t="inlineStr"/>
+      <c r="H30" s="16" t="inlineStr"/>
+      <c r="I30" s="16" t="inlineStr"/>
+      <c r="J30" s="16" t="inlineStr"/>
+      <c r="K30" s="16" t="inlineStr"/>
+      <c r="L30" s="16" t="inlineStr"/>
+      <c r="M30" s="16" t="inlineStr"/>
+      <c r="N30" s="16" t="inlineStr"/>
+      <c r="O30" s="17" t="inlineStr"/>
+      <c r="P30" s="15" t="inlineStr"/>
     </row>
     <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="10" t="inlineStr">
+      <c r="A31" s="9" t="inlineStr">
         <is>
           <t>CIR (%)</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr"/>
-      <c r="C31" s="17" t="inlineStr"/>
-      <c r="D31" s="17" t="inlineStr"/>
-      <c r="E31" s="17" t="inlineStr"/>
-      <c r="F31" s="17" t="n">
+      <c r="B31" s="8" t="inlineStr"/>
+      <c r="C31" s="18" t="inlineStr"/>
+      <c r="D31" s="18" t="inlineStr"/>
+      <c r="E31" s="18" t="inlineStr"/>
+      <c r="F31" s="18" t="n">
         <v>-13.37</v>
       </c>
-      <c r="G31" s="9" t="inlineStr"/>
-      <c r="H31" s="17" t="n">
+      <c r="G31" s="12" t="inlineStr"/>
+      <c r="H31" s="18" t="n">
         <v>18.5</v>
       </c>
-      <c r="I31" s="17" t="n">
+      <c r="I31" s="18" t="n">
         <v>22.35</v>
       </c>
-      <c r="J31" s="17" t="n">
+      <c r="J31" s="18" t="n">
         <v>20.75</v>
       </c>
-      <c r="K31" s="17" t="n">
+      <c r="K31" s="18" t="n">
         <v>26.31</v>
       </c>
-      <c r="L31" s="17" t="n">
+      <c r="L31" s="18" t="n">
         <v>14.96</v>
       </c>
-      <c r="M31" s="17" t="n">
+      <c r="M31" s="18" t="n">
         <v>15.36</v>
       </c>
-      <c r="N31" s="17" t="n">
+      <c r="N31" s="18" t="n">
         <v>20.76</v>
       </c>
-      <c r="O31" s="17" t="n">
+      <c r="O31" s="18" t="n">
         <v>1.39</v>
       </c>
-      <c r="P31" s="10" t="n">
+      <c r="P31" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="10" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr"/>
-      <c r="C32" s="18" t="inlineStr"/>
-      <c r="D32" s="18" t="inlineStr"/>
-      <c r="E32" s="18" t="inlineStr"/>
-      <c r="F32" s="18" t="n">
+      <c r="B32" s="8" t="inlineStr"/>
+      <c r="C32" s="19" t="inlineStr"/>
+      <c r="D32" s="19" t="inlineStr"/>
+      <c r="E32" s="19" t="inlineStr"/>
+      <c r="F32" s="19" t="n">
         <v>-1580.3</v>
       </c>
-      <c r="G32" s="9" t="inlineStr"/>
-      <c r="H32" s="18" t="n">
+      <c r="G32" s="12" t="inlineStr"/>
+      <c r="H32" s="19" t="n">
         <v>6.8</v>
       </c>
-      <c r="I32" s="18" t="n">
+      <c r="I32" s="19" t="n">
         <v>2.1</v>
       </c>
-      <c r="J32" s="18" t="n">
+      <c r="J32" s="19" t="n">
         <v>16.7</v>
       </c>
-      <c r="K32" s="18" t="n">
+      <c r="K32" s="19" t="n">
         <v>22.9</v>
       </c>
-      <c r="L32" s="18" t="n">
+      <c r="L32" s="19" t="n">
         <v>25.2</v>
       </c>
-      <c r="M32" s="18" t="n">
+      <c r="M32" s="19" t="n">
         <v>21.6</v>
       </c>
-      <c r="N32" s="18" t="n">
+      <c r="N32" s="19" t="n">
         <v>-18</v>
       </c>
-      <c r="O32" s="18" t="n">
+      <c r="O32" s="19" t="n">
         <v>0.8</v>
       </c>
-      <c r="P32" s="10" t="n">
+      <c r="P32" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="10" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>Hiệu suất trên/vốn (%)</t>
         </is>
       </c>
-      <c r="B33" s="7" t="inlineStr"/>
-      <c r="C33" s="18" t="inlineStr"/>
-      <c r="D33" s="18" t="inlineStr"/>
-      <c r="E33" s="18" t="inlineStr"/>
-      <c r="F33" s="18" t="n">
+      <c r="B33" s="8" t="inlineStr"/>
+      <c r="C33" s="19" t="inlineStr"/>
+      <c r="D33" s="19" t="inlineStr"/>
+      <c r="E33" s="19" t="inlineStr"/>
+      <c r="F33" s="19" t="n">
         <v>-109.4</v>
       </c>
-      <c r="G33" s="9" t="inlineStr"/>
-      <c r="H33" s="18" t="n">
+      <c r="G33" s="12" t="inlineStr"/>
+      <c r="H33" s="19" t="n">
         <v>34.5</v>
       </c>
-      <c r="I33" s="18" t="n">
+      <c r="I33" s="19" t="n">
         <v>10.7</v>
       </c>
-      <c r="J33" s="18" t="n">
+      <c r="J33" s="19" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="K33" s="18" t="n">
+      <c r="K33" s="19" t="n">
         <v>115.5</v>
       </c>
-      <c r="L33" s="18" t="n">
+      <c r="L33" s="19" t="n">
         <v>127.1</v>
       </c>
-      <c r="M33" s="18" t="n">
+      <c r="M33" s="19" t="n">
         <v>109.1</v>
       </c>
-      <c r="N33" s="18" t="n">
+      <c r="N33" s="19" t="n">
         <v>-90.8</v>
       </c>
-      <c r="O33" s="18" t="n">
+      <c r="O33" s="19" t="n">
         <v>3.9</v>
       </c>
-      <c r="P33" s="10" t="n">
+      <c r="P33" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="10" t="inlineStr">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>Hiệu suất BQ/ Nhân sự</t>
         </is>
       </c>
-      <c r="B34" s="7" t="inlineStr"/>
-      <c r="C34" s="8" t="inlineStr"/>
-      <c r="D34" s="8" t="inlineStr"/>
-      <c r="E34" s="8" t="inlineStr"/>
-      <c r="F34" s="8" t="n">
+      <c r="B34" s="8" t="inlineStr"/>
+      <c r="C34" s="11" t="inlineStr"/>
+      <c r="D34" s="11" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="11" t="n">
         <v>-1954.4</v>
       </c>
-      <c r="G34" s="9" t="inlineStr"/>
-      <c r="H34" s="8" t="n">
+      <c r="G34" s="12" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
         <v>654.61</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34" s="11" t="n">
         <v>130.19</v>
       </c>
-      <c r="J34" s="8" t="n">
+      <c r="J34" s="11" t="n">
         <v>771.84</v>
       </c>
-      <c r="K34" s="8" t="n">
+      <c r="K34" s="11" t="n">
         <v>947.77</v>
       </c>
-      <c r="L34" s="8" t="n">
+      <c r="L34" s="11" t="n">
         <v>2927.36</v>
       </c>
-      <c r="M34" s="8" t="n">
+      <c r="M34" s="11" t="n">
         <v>5276.99</v>
       </c>
-      <c r="N34" s="8" t="n">
+      <c r="N34" s="11" t="n">
         <v>-1270.13</v>
       </c>
-      <c r="O34" s="8" t="n">
+      <c r="O34" s="11" t="n">
         <v>9438.620000000001</v>
       </c>
-      <c r="P34" s="10" t="n">
+      <c r="P34" s="9" t="n">
         <v>202302</v>
       </c>
     </row>
